--- a/db/INV-1012-ETF.xlsx
+++ b/db/INV-1012-ETF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.8_FinTech/FinTech-Investment/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.8_FinTech/FinTech-InvestmentB/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5268E7-E440-3B4A-8D7D-8BB6DFCCB371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E71783-13E8-FC40-B201-8D40F246175E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="1040" windowWidth="34860" windowHeight="16660" activeTab="1" xr2:uid="{28A2140B-4154-1142-A985-B7727A1CF84A}"/>
+    <workbookView xWindow="9040" yWindow="3720" windowWidth="41000" windowHeight="16660" xr2:uid="{28A2140B-4154-1142-A985-B7727A1CF84A}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Summary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="22" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="183">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,10 +525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3ˇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Month3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,18 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>殖利率-2021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>殖利率-2020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>殖利率-3年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,18 +715,43 @@
   </si>
   <si>
     <t>加總 - 報酬率18</t>
+  </si>
+  <si>
+    <t>https://www.fhtrust.com.tw/funds/fund_intro_ETF_brief.aspx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高成長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殖利率2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殖利率3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殖利率2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0.0000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -808,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,6 +870,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2731,19 +2743,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2799,19 +2799,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2867,19 +2855,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2935,19 +2911,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6550,7 +6514,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{758535FF-358A-1B48-813D-8A2F74642EF9}" name="樞紐分析表4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{758535FF-358A-1B48-813D-8A2F74642EF9}" name="樞紐分析表4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A66:E82" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="42">
     <pivotField showAll="0"/>
@@ -6864,7 +6828,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72C89295-9E50-F543-BF77-D31ACEF74031}" name="樞紐分析表3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72C89295-9E50-F543-BF77-D31ACEF74031}" name="樞紐分析表3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:G19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="42">
     <pivotField showAll="0"/>
@@ -7526,13 +7490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34585F0-3AED-7440-902D-5D19BC92B879}">
-  <dimension ref="A1:AP28"/>
+  <dimension ref="A1:AP16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -7540,11 +7504,12 @@
     <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="41.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="2"/>
     <col min="12" max="14" width="10.83203125" style="11"/>
@@ -7558,10 +7523,11 @@
     <col min="30" max="30" width="11.6640625" style="2" customWidth="1"/>
     <col min="31" max="31" width="4.1640625" style="7" customWidth="1"/>
     <col min="32" max="32" width="10.83203125" style="2"/>
-    <col min="33" max="34" width="6.33203125" style="6" customWidth="1"/>
-    <col min="35" max="35" width="25.6640625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="11" style="18" customWidth="1"/>
+    <col min="34" max="34" width="6.33203125" style="6" customWidth="1"/>
+    <col min="35" max="35" width="15" style="2" customWidth="1"/>
     <col min="36" max="36" width="10.83203125" style="8"/>
-    <col min="37" max="37" width="10.83203125" style="2"/>
+    <col min="37" max="37" width="10.33203125" style="2" customWidth="1"/>
     <col min="38" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -7570,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -7582,7 +7548,7 @@
         <v>120</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7600,40 +7566,40 @@
         <v>7</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="R1" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="S1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="X1" s="10" t="s">
         <v>48</v>
@@ -7662,7 +7628,7 @@
       <c r="AF1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="18" t="s">
         <v>29</v>
       </c>
       <c r="AH1" s="6" t="s">
@@ -7710,7 +7676,7 @@
         <v>121</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>98</v>
@@ -7738,7 +7704,7 @@
       <c r="AD2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AL2" s="1" t="s">
@@ -7767,6 +7733,9 @@
       <c r="E3" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="F3" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
@@ -7794,7 +7763,7 @@
       <c r="AF3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AL3" s="1" t="s">
@@ -7827,7 +7796,7 @@
         <v>121</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
@@ -7844,6 +7813,9 @@
       <c r="K4" s="2">
         <v>17.09</v>
       </c>
+      <c r="M4" s="11">
+        <v>1.36</v>
+      </c>
       <c r="O4" s="11">
         <v>7.9</v>
       </c>
@@ -7868,7 +7840,7 @@
       <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AI4" s="2" t="s">
@@ -7903,6 +7875,9 @@
       <c r="E5" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
@@ -7939,7 +7914,7 @@
       <c r="AF5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="18">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="AI5" s="2" t="s">
@@ -7974,6 +7949,9 @@
       <c r="E6" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8019,7 +7997,7 @@
       <c r="AF6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="18">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="AI6" s="2" t="s">
@@ -8055,6 +8033,9 @@
       <c r="E7" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8103,7 +8084,7 @@
       <c r="AF7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG7" s="18">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="AI7" s="2" t="s">
@@ -8141,6 +8122,9 @@
       <c r="E8" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
@@ -8186,7 +8170,7 @@
       <c r="AF8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="18">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="AI8" s="2" t="s">
@@ -8216,16 +8200,19 @@
         <v>121</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -8233,8 +8220,14 @@
       <c r="I9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J9" s="3">
+        <v>43202</v>
+      </c>
       <c r="K9" s="2">
         <v>48.65</v>
+      </c>
+      <c r="M9" s="11">
+        <v>4.46</v>
       </c>
       <c r="O9" s="11">
         <v>5.0999999999999996</v>
@@ -8259,14 +8252,32 @@
       <c r="X9" s="10">
         <v>-0.92</v>
       </c>
+      <c r="Y9" s="10">
+        <v>9.64E-2</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>20.29</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>4.4999999999999997E-3</v>
+      </c>
       <c r="AL9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="20">
@@ -8277,16 +8288,19 @@
         <v>121</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
@@ -8294,8 +8308,14 @@
       <c r="I10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J10" s="3">
+        <v>43130</v>
+      </c>
       <c r="K10" s="2">
         <v>18.66</v>
+      </c>
+      <c r="M10" s="11">
+        <v>4.84</v>
       </c>
       <c r="O10" s="11">
         <v>5.0999999999999996</v>
@@ -8312,14 +8332,26 @@
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
+      <c r="Y10" s="10">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>24.29</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>1.19</v>
+      </c>
+      <c r="AG10" s="18">
+        <v>3.5E-4</v>
+      </c>
       <c r="AL10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="20">
@@ -8330,16 +8362,19 @@
         <v>121</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
@@ -8347,8 +8382,14 @@
       <c r="I11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J11" s="3">
+        <v>42997</v>
+      </c>
       <c r="K11" s="2">
         <v>34.799999999999997</v>
+      </c>
+      <c r="M11" s="11">
+        <v>4.93</v>
       </c>
       <c r="O11" s="11">
         <v>14</v>
@@ -8375,14 +8416,23 @@
       <c r="X11" s="10">
         <v>-0.71</v>
       </c>
+      <c r="Y11" s="10">
+        <v>0.2172</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>1.02</v>
+      </c>
       <c r="AL11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="20">
@@ -8393,16 +8443,19 @@
         <v>121</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>121</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
@@ -8410,8 +8463,14 @@
       <c r="I12" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J12" s="3">
+        <v>42956</v>
+      </c>
       <c r="K12" s="2">
         <v>20.78</v>
+      </c>
+      <c r="M12" s="11">
+        <v>6.61</v>
       </c>
       <c r="O12" s="11">
         <v>0.2</v>
@@ -8438,14 +8497,23 @@
       <c r="X12" s="10">
         <v>-5.89</v>
       </c>
+      <c r="Y12" s="10">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>20.41</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>1.01</v>
+      </c>
       <c r="AL12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="20">
@@ -8465,7 +8533,7 @@
         <v>121</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>111</v>
@@ -8492,6 +8560,15 @@
       <c r="X13" s="10">
         <v>11.76</v>
       </c>
+      <c r="Y13" s="10">
+        <v>0.312</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>27.62</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>1.03</v>
+      </c>
       <c r="AC13" s="2" t="s">
         <v>113</v>
       </c>
@@ -8501,7 +8578,7 @@
       <c r="AF13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AH13" s="6">
@@ -8539,6 +8616,9 @@
       <c r="E14" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>87</v>
       </c>
@@ -8596,7 +8676,7 @@
       <c r="AF14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AG14" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI14" s="2" t="s">
@@ -8635,7 +8715,7 @@
         <v>121</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>21</v>
@@ -8652,6 +8732,9 @@
       <c r="K15" s="2">
         <v>30.7</v>
       </c>
+      <c r="M15" s="11">
+        <v>5.39</v>
+      </c>
       <c r="O15" s="11">
         <v>8.9</v>
       </c>
@@ -8703,7 +8786,7 @@
       <c r="AF15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AG15" s="18">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AI15" s="2" t="s">
@@ -8739,6 +8822,9 @@
       <c r="E16" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="F16" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
@@ -8796,7 +8882,7 @@
       <c r="AF16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AG16" s="6">
+      <c r="AG16" s="18">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="AI16" s="2" t="s">
@@ -8815,14 +8901,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="10:10">
-      <c r="J28" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP28">
-    <sortCondition descending="1" ref="D2:D28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP27">
+    <sortCondition descending="1" ref="D2:D27"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8837,6 +8918,7 @@
     <hyperlink ref="AO12" r:id="rId9" xr:uid="{A02C21B8-7C54-7647-960D-3ED0EC6F47BD}"/>
     <hyperlink ref="AO10" r:id="rId10" xr:uid="{B1796C75-2B98-9948-9AC3-ED159D87C90C}"/>
     <hyperlink ref="AO9" r:id="rId11" xr:uid="{C4E7B5BD-91F6-4A48-88A8-160B16C6F4C1}"/>
+    <hyperlink ref="AP9" r:id="rId12" xr:uid="{68895279-FB9D-7144-AD2D-9E1027CF0F83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8846,7 +8928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF4A84-BE78-1C4F-9CC4-02BFB6057ABF}">
   <dimension ref="A3:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+    <sheetView topLeftCell="B62" workbookViewId="0">
       <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
@@ -8860,30 +8942,30 @@
   <sheetData>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" t="s">
         <v>171</v>
-      </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B4" s="15">
         <v>15.38</v>
@@ -8900,7 +8982,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B5" s="15">
         <v>14.26</v>
@@ -8913,7 +8995,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B6" s="15">
         <v>12.9</v>
@@ -8930,7 +9012,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B7" s="15">
         <v>11.84</v>
@@ -8953,7 +9035,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B8" s="15">
         <v>11.76</v>
@@ -8968,7 +9050,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B9" s="15">
         <v>10.8</v>
@@ -8987,7 +9069,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B10" s="15">
         <v>10.65</v>
@@ -9010,7 +9092,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B11" s="15">
         <v>7.67</v>
@@ -9029,7 +9111,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B12" s="15">
         <v>2.64</v>
@@ -9052,7 +9134,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" s="15">
         <v>1.56</v>
@@ -9071,7 +9153,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -9082,7 +9164,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B15" s="15">
         <v>-0.71</v>
@@ -9103,7 +9185,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B16" s="15">
         <v>-0.92</v>
@@ -9122,7 +9204,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B17" s="15">
         <v>-0.98</v>
@@ -9135,7 +9217,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B18" s="15">
         <v>-5.89</v>
@@ -9156,7 +9238,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B19" s="15">
         <v>90.960000000000008</v>
@@ -9179,24 +9261,24 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E66" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B67" s="16">
         <v>132.68</v>
@@ -9207,7 +9289,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B68" s="16">
         <v>48.65</v>
@@ -9224,7 +9306,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B69" s="16">
         <v>34.799999999999997</v>
@@ -9241,7 +9323,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B70" s="16">
         <v>32.770000000000003</v>
@@ -9252,7 +9334,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B71" s="16">
         <v>30.7</v>
@@ -9269,7 +9351,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B72" s="16">
         <v>30.59</v>
@@ -9280,7 +9362,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B73" s="16">
         <v>28.79</v>
@@ -9291,7 +9373,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B74" s="16">
         <v>28.78</v>
@@ -9302,7 +9384,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B75" s="16">
         <v>25.47</v>
@@ -9313,7 +9395,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B76" s="16">
         <v>20.78</v>
@@ -9330,7 +9412,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B77" s="16">
         <v>18.66</v>
@@ -9347,7 +9429,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B78" s="16">
         <v>17.47</v>
@@ -9358,7 +9440,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B79" s="16">
         <v>17.09</v>
@@ -9371,7 +9453,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B80" s="16">
         <v>15.11</v>
@@ -9382,7 +9464,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B81" s="16">
         <v>12.75</v>
@@ -9393,7 +9475,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B82" s="16">
         <v>495.09000000000009</v>
